--- a/机械臂角度.xlsx
+++ b/机械臂角度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BE9757-6805-4E7D-9DEF-108A89AD982F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E08D43-B4DA-4598-BA41-F3218A25ACB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7212" yWindow="2628" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1764" yWindow="2916" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>TAKE_LEFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>PLACE_RIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -131,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +139,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,7 +427,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -457,14 +456,17 @@
       <c r="B2" s="2">
         <v>60</v>
       </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="G2">
+        <v>90</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
@@ -480,11 +482,17 @@
       <c r="B3" s="2">
         <v>65</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="2">
         <v>65</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>2</v>
@@ -500,6 +508,9 @@
       <c r="B4" s="2">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
@@ -520,6 +531,9 @@
       <c r="B5" s="2">
         <v>117</v>
       </c>
+      <c r="C5">
+        <v>117</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
@@ -555,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
